--- a/P_A_B.xlsx
+++ b/P_A_B.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet name="lum" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="sev_lum" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames/>
 </workbook>

--- a/P_A_B.xlsx
+++ b/P_A_B.xlsx
@@ -4,6 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="sev_lum" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="sev_catv" r:id="rId2" sheetId="2" state="visible"/>
+    <sheet name="sev_manv" r:id="rId3" sheetId="3" state="visible"/>
+    <sheet name="sev_int" r:id="rId4" sheetId="4" state="visible"/>
+    <sheet name="sev_atm" r:id="rId5" sheetId="5" state="visible"/>
+    <sheet name="sev_col" r:id="rId6" sheetId="6" state="visible"/>
+    <sheet name="sev_circ" r:id="rId7" sheetId="7" state="visible"/>
+    <sheet name="sev_prof" r:id="rId8" sheetId="8" state="visible"/>
+    <sheet name="sev_surf" r:id="rId9" sheetId="9" state="visible"/>
+    <sheet name="sev_infra" r:id="rId10" sheetId="10" state="visible"/>
+    <sheet name="sev_situ" r:id="rId11" sheetId="11" state="visible"/>
+    <sheet name="sev_catr" r:id="rId12" sheetId="12" state="visible"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -103,6 +114,1168 @@
   </si>
   <si>
     <t>0.002197063803263325</t>
+  </si>
+  <si>
+    <t>catv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.723341</t>
+  </si>
+  <si>
+    <t>0.564332</t>
+  </si>
+  <si>
+    <t>0.563531</t>
+  </si>
+  <si>
+    <t>0.594558</t>
+  </si>
+  <si>
+    <t>0.529872</t>
+  </si>
+  <si>
+    <t>0.619559</t>
+  </si>
+  <si>
+    <t>0.515898</t>
+  </si>
+  <si>
+    <t>0.568286</t>
+  </si>
+  <si>
+    <t>0.432549</t>
+  </si>
+  <si>
+    <t>0.540977</t>
+  </si>
+  <si>
+    <t>0.708171</t>
+  </si>
+  <si>
+    <t>0.519874</t>
+  </si>
+  <si>
+    <t>0.656363</t>
+  </si>
+  <si>
+    <t>0.464587</t>
+  </si>
+  <si>
+    <t>0.613594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.251084</t>
+  </si>
+  <si>
+    <t>0.362651</t>
+  </si>
+  <si>
+    <t>0.363160</t>
+  </si>
+  <si>
+    <t>0.353142</t>
+  </si>
+  <si>
+    <t>0.400830</t>
+  </si>
+  <si>
+    <t>0.341706</t>
+  </si>
+  <si>
+    <t>0.377365</t>
+  </si>
+  <si>
+    <t>0.329304</t>
+  </si>
+  <si>
+    <t>0.496321</t>
+  </si>
+  <si>
+    <t>0.459023</t>
+  </si>
+  <si>
+    <t>0.218505</t>
+  </si>
+  <si>
+    <t>0.427333</t>
+  </si>
+  <si>
+    <t>0.157994</t>
+  </si>
+  <si>
+    <t>0.438026</t>
+  </si>
+  <si>
+    <t>0.282013</t>
+  </si>
+  <si>
+    <t>0.023743</t>
+  </si>
+  <si>
+    <t>0.071167</t>
+  </si>
+  <si>
+    <t>0.072117</t>
+  </si>
+  <si>
+    <t>0.050091</t>
+  </si>
+  <si>
+    <t>0.068097</t>
+  </si>
+  <si>
+    <t>0.033555</t>
+  </si>
+  <si>
+    <t>0.102772</t>
+  </si>
+  <si>
+    <t>0.100092</t>
+  </si>
+  <si>
+    <t>0.069631</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>0.069736</t>
+  </si>
+  <si>
+    <t>0.052793</t>
+  </si>
+  <si>
+    <t>0.185643</t>
+  </si>
+  <si>
+    <t>0.018308</t>
+  </si>
+  <si>
+    <t>0.101543</t>
+  </si>
+  <si>
+    <t>0.001832</t>
+  </si>
+  <si>
+    <t>0.001850</t>
+  </si>
+  <si>
+    <t>0.001193</t>
+  </si>
+  <si>
+    <t>0.002209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001201</t>
+  </si>
+  <si>
+    <t>0.005179</t>
+  </si>
+  <si>
+    <t>0.003966</t>
+  </si>
+  <si>
+    <t>0.002317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001500</t>
+  </si>
+  <si>
+    <t>0.003588</t>
+  </si>
+  <si>
+    <t>0.079079</t>
+  </si>
+  <si>
+    <t>0.002850</t>
+  </si>
+  <si/>
+  <si>
+    <t>manv</t>
+  </si>
+  <si>
+    <t>0.847074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.573497</t>
+  </si>
+  <si>
+    <t>0.537282</t>
+  </si>
+  <si>
+    <t>0.551086</t>
+  </si>
+  <si>
+    <t>0.592336</t>
+  </si>
+  <si>
+    <t>0.559649</t>
+  </si>
+  <si>
+    <t>0.507907</t>
+  </si>
+  <si>
+    <t>0.600613</t>
+  </si>
+  <si>
+    <t>0.702122</t>
+  </si>
+  <si>
+    <t>0.580854</t>
+  </si>
+  <si>
+    <t>0.500074</t>
+  </si>
+  <si>
+    <t>0.544444</t>
+  </si>
+  <si>
+    <t>0.389850</t>
+  </si>
+  <si>
+    <t>0.536153</t>
+  </si>
+  <si>
+    <t>0.568696</t>
+  </si>
+  <si>
+    <t>0.546052</t>
+  </si>
+  <si>
+    <t>0.593592</t>
+  </si>
+  <si>
+    <t>0.480816</t>
+  </si>
+  <si>
+    <t>0.591301</t>
+  </si>
+  <si>
+    <t>0.552871</t>
+  </si>
+  <si>
+    <t>0.685610</t>
+  </si>
+  <si>
+    <t>0.560996</t>
+  </si>
+  <si>
+    <t>0.523301</t>
+  </si>
+  <si>
+    <t>0.550383</t>
+  </si>
+  <si>
+    <t>0.535744</t>
+  </si>
+  <si>
+    <t>0.470573</t>
+  </si>
+  <si>
+    <t>0.366122</t>
+  </si>
+  <si>
+    <t>0.391690</t>
+  </si>
+  <si>
+    <t>0.379926</t>
+  </si>
+  <si>
+    <t>0.289963</t>
+  </si>
+  <si>
+    <t>0.407029</t>
+  </si>
+  <si>
+    <t>0.430963</t>
+  </si>
+  <si>
+    <t>0.903846</t>
+  </si>
+  <si>
+    <t>0.254813</t>
+  </si>
+  <si>
+    <t>0.297878</t>
+  </si>
+  <si>
+    <t>0.334441</t>
+  </si>
+  <si>
+    <t>0.477356</t>
+  </si>
+  <si>
+    <t>0.384972</t>
+  </si>
+  <si>
+    <t>0.534355</t>
+  </si>
+  <si>
+    <t>0.368862</t>
+  </si>
+  <si>
+    <t>0.361907</t>
+  </si>
+  <si>
+    <t>0.376456</t>
+  </si>
+  <si>
+    <t>0.359763</t>
+  </si>
+  <si>
+    <t>0.451689</t>
+  </si>
+  <si>
+    <t>0.286699</t>
+  </si>
+  <si>
+    <t>0.384916</t>
+  </si>
+  <si>
+    <t>0.116349</t>
+  </si>
+  <si>
+    <t>0.384469</t>
+  </si>
+  <si>
+    <t>0.423842</t>
+  </si>
+  <si>
+    <t>0.350254</t>
+  </si>
+  <si>
+    <t>0.303056</t>
+  </si>
+  <si>
+    <t>0.425184</t>
+  </si>
+  <si>
+    <t>0.152926</t>
+  </si>
+  <si>
+    <t>0.059163</t>
+  </si>
+  <si>
+    <t>0.069160</t>
+  </si>
+  <si>
+    <t>0.067708</t>
+  </si>
+  <si>
+    <t>0.115162</t>
+  </si>
+  <si>
+    <t>0.028867</t>
+  </si>
+  <si>
+    <t>0.061130</t>
+  </si>
+  <si>
+    <t>0.096154</t>
+  </si>
+  <si>
+    <t>0.144575</t>
+  </si>
+  <si>
+    <t>0.082393</t>
+  </si>
+  <si>
+    <t>0.022570</t>
+  </si>
+  <si>
+    <t>0.065527</t>
+  </si>
+  <si>
+    <t>0.075795</t>
+  </si>
+  <si>
+    <t>0.094178</t>
+  </si>
+  <si>
+    <t>0.066001</t>
+  </si>
+  <si>
+    <t>0.077016</t>
+  </si>
+  <si>
+    <t>0.042865</t>
+  </si>
+  <si>
+    <t>0.065103</t>
+  </si>
+  <si>
+    <t>0.122000</t>
+  </si>
+  <si>
+    <t>0.061423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.198041</t>
+  </si>
+  <si>
+    <t>0.054535</t>
+  </si>
+  <si>
+    <t>0.051531</t>
+  </si>
+  <si>
+    <t>0.099363</t>
+  </si>
+  <si>
+    <t>0.161200</t>
+  </si>
+  <si>
+    <t>0.100122</t>
+  </si>
+  <si>
+    <t>0.001218</t>
+  </si>
+  <si>
+    <t>0.001868</t>
+  </si>
+  <si>
+    <t>0.001280</t>
+  </si>
+  <si>
+    <t>0.002539</t>
+  </si>
+  <si>
+    <t>0.004456</t>
+  </si>
+  <si>
+    <t>0.002312</t>
+  </si>
+  <si>
+    <t>0.005057</t>
+  </si>
+  <si>
+    <t>0.000808</t>
+  </si>
+  <si>
+    <t>0.003396</t>
+  </si>
+  <si>
+    <t>0.000475</t>
+  </si>
+  <si>
+    <t>0.003781</t>
+  </si>
+  <si>
+    <t>0.002392</t>
+  </si>
+  <si>
+    <t>0.000790</t>
+  </si>
+  <si>
+    <t>0.001326</t>
+  </si>
+  <si>
+    <t>0.004121</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>0.564405</t>
+  </si>
+  <si>
+    <t>0.500793</t>
+  </si>
+  <si>
+    <t>0.522677</t>
+  </si>
+  <si>
+    <t>0.498025</t>
+  </si>
+  <si>
+    <t>0.537571</t>
+  </si>
+  <si>
+    <t>0.32293</t>
+  </si>
+  <si>
+    <t>0.805989</t>
+  </si>
+  <si>
+    <t>0.532157</t>
+  </si>
+  <si>
+    <t>0.368258</t>
+  </si>
+  <si>
+    <t>0.424927</t>
+  </si>
+  <si>
+    <t>0.388059</t>
+  </si>
+  <si>
+    <t>0.408007</t>
+  </si>
+  <si>
+    <t>0.489362</t>
+  </si>
+  <si>
+    <t>0.374030</t>
+  </si>
+  <si>
+    <t>0.61652</t>
+  </si>
+  <si>
+    <t>0.404624</t>
+  </si>
+  <si>
+    <t>0.065869</t>
+  </si>
+  <si>
+    <t>0.072092</t>
+  </si>
+  <si>
+    <t>0.086989</t>
+  </si>
+  <si>
+    <t>0.093011</t>
+  </si>
+  <si>
+    <t>0.078090</t>
+  </si>
+  <si>
+    <t>0.085404</t>
+  </si>
+  <si>
+    <t>0.05830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.194011</t>
+  </si>
+  <si>
+    <t>0.062091</t>
+  </si>
+  <si>
+    <t>0.001468</t>
+  </si>
+  <si>
+    <t>0.002189</t>
+  </si>
+  <si>
+    <t>0.002276</t>
+  </si>
+  <si>
+    <t>0.000957</t>
+  </si>
+  <si>
+    <t>0.002996</t>
+  </si>
+  <si>
+    <t>0.00225</t>
+  </si>
+  <si>
+    <t>0.001127</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>0.531206</t>
+  </si>
+  <si>
+    <t>0.585875</t>
+  </si>
+  <si>
+    <t>0.618602</t>
+  </si>
+  <si>
+    <t>0.471794</t>
+  </si>
+  <si>
+    <t>0.542872</t>
+  </si>
+  <si>
+    <t>0.570992</t>
+  </si>
+  <si>
+    <t>0.705622</t>
+  </si>
+  <si>
+    <t>0.395648</t>
+  </si>
+  <si>
+    <t>0.342974</t>
+  </si>
+  <si>
+    <t>0.330486</t>
+  </si>
+  <si>
+    <t>0.467041</t>
+  </si>
+  <si>
+    <t>0.875776</t>
+  </si>
+  <si>
+    <t>0.358269</t>
+  </si>
+  <si>
+    <t>0.385391</t>
+  </si>
+  <si>
+    <t>0.239490</t>
+  </si>
+  <si>
+    <t>0.071623</t>
+  </si>
+  <si>
+    <t>0.068874</t>
+  </si>
+  <si>
+    <t>0.049635</t>
+  </si>
+  <si>
+    <t>0.056783</t>
+  </si>
+  <si>
+    <t>0.124224</t>
+  </si>
+  <si>
+    <t>0.094377</t>
+  </si>
+  <si>
+    <t>0.042170</t>
+  </si>
+  <si>
+    <t>0.050955</t>
+  </si>
+  <si>
+    <t>0.001522</t>
+  </si>
+  <si>
+    <t>0.002278</t>
+  </si>
+  <si>
+    <t>0.001277</t>
+  </si>
+  <si>
+    <t>0.004382</t>
+  </si>
+  <si>
+    <t>0.004482</t>
+  </si>
+  <si>
+    <t>0.001446</t>
+  </si>
+  <si>
+    <t>0.003932</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>0.573584</t>
+  </si>
+  <si>
+    <t>0.560168</t>
+  </si>
+  <si>
+    <t>0.509913</t>
+  </si>
+  <si>
+    <t>0.543413</t>
+  </si>
+  <si>
+    <t>0.592413</t>
+  </si>
+  <si>
+    <t>0.553011</t>
+  </si>
+  <si>
+    <t>0.514541</t>
+  </si>
+  <si>
+    <t>0.824561</t>
+  </si>
+  <si>
+    <t>0.369101</t>
+  </si>
+  <si>
+    <t>0.375385</t>
+  </si>
+  <si>
+    <t>0.411730</t>
+  </si>
+  <si>
+    <t>0.386029</t>
+  </si>
+  <si>
+    <t>0.343930</t>
+  </si>
+  <si>
+    <t>0.373171</t>
+  </si>
+  <si>
+    <t>0.410018</t>
+  </si>
+  <si>
+    <t>0.175439</t>
+  </si>
+  <si>
+    <t>0.055598</t>
+  </si>
+  <si>
+    <t>0.063206</t>
+  </si>
+  <si>
+    <t>0.076219</t>
+  </si>
+  <si>
+    <t>0.068445</t>
+  </si>
+  <si>
+    <t>0.061919</t>
+  </si>
+  <si>
+    <t>0.072847</t>
+  </si>
+  <si>
+    <t>0.072698</t>
+  </si>
+  <si>
+    <t>0.001716</t>
+  </si>
+  <si>
+    <t>0.001242</t>
+  </si>
+  <si>
+    <t>0.002139</t>
+  </si>
+  <si>
+    <t>0.002113</t>
+  </si>
+  <si>
+    <t>0.001738</t>
+  </si>
+  <si>
+    <t>0.000971</t>
+  </si>
+  <si>
+    <t>0.002743</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>0.507999</t>
+  </si>
+  <si>
+    <t>0.532596</t>
+  </si>
+  <si>
+    <t>0.541272</t>
+  </si>
+  <si>
+    <t>0.558991</t>
+  </si>
+  <si>
+    <t>0.340573</t>
+  </si>
+  <si>
+    <t>0.416430</t>
+  </si>
+  <si>
+    <t>0.390672</t>
+  </si>
+  <si>
+    <t>0.385902</t>
+  </si>
+  <si>
+    <t>0.383198</t>
+  </si>
+  <si>
+    <t>0.505714</t>
+  </si>
+  <si>
+    <t>0.074612</t>
+  </si>
+  <si>
+    <t>0.075483</t>
+  </si>
+  <si>
+    <t>0.071024</t>
+  </si>
+  <si>
+    <t>0.055875</t>
+  </si>
+  <si>
+    <t>0.153712</t>
+  </si>
+  <si>
+    <t>0.000960</t>
+  </si>
+  <si>
+    <t>0.001248</t>
+  </si>
+  <si>
+    <t>0.001803</t>
+  </si>
+  <si>
+    <t>0.001936</t>
+  </si>
+  <si>
+    <t>prof</t>
+  </si>
+  <si>
+    <t>0.540683</t>
+  </si>
+  <si>
+    <t>0.531436</t>
+  </si>
+  <si>
+    <t>0.498796</t>
+  </si>
+  <si>
+    <t>0.643543</t>
+  </si>
+  <si>
+    <t>0.389825</t>
+  </si>
+  <si>
+    <t>0.382606</t>
+  </si>
+  <si>
+    <t>0.444394</t>
+  </si>
+  <si>
+    <t>0.273026</t>
+  </si>
+  <si>
+    <t>0.067895</t>
+  </si>
+  <si>
+    <t>0.084313</t>
+  </si>
+  <si>
+    <t>0.054030</t>
+  </si>
+  <si>
+    <t>0.077454</t>
+  </si>
+  <si>
+    <t>0.001597</t>
+  </si>
+  <si>
+    <t>0.001645</t>
+  </si>
+  <si>
+    <t>0.002780</t>
+  </si>
+  <si>
+    <t>0.005977</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>0.532380</t>
+  </si>
+  <si>
+    <t>0.582960</t>
+  </si>
+  <si>
+    <t>0.428754</t>
+  </si>
+  <si>
+    <t>0.395156</t>
+  </si>
+  <si>
+    <t>0.346252</t>
+  </si>
+  <si>
+    <t>0.509322</t>
+  </si>
+  <si>
+    <t>0.070945</t>
+  </si>
+  <si>
+    <t>0.068158</t>
+  </si>
+  <si>
+    <t>0.061924</t>
+  </si>
+  <si>
+    <t>0.001520</t>
+  </si>
+  <si>
+    <t>0.002630</t>
+  </si>
+  <si>
+    <t>infra</t>
+  </si>
+  <si>
+    <t>0.481607</t>
+  </si>
+  <si>
+    <t>0.540121</t>
+  </si>
+  <si>
+    <t>0.526139</t>
+  </si>
+  <si>
+    <t>0.565401</t>
+  </si>
+  <si>
+    <t>0.659541</t>
+  </si>
+  <si>
+    <t>0.821935</t>
+  </si>
+  <si>
+    <t>0.503259</t>
+  </si>
+  <si>
+    <t>0.444621</t>
+  </si>
+  <si>
+    <t>0.538348</t>
+  </si>
+  <si>
+    <t>0.564616</t>
+  </si>
+  <si>
+    <t>0.502952</t>
+  </si>
+  <si>
+    <t>0.387493</t>
+  </si>
+  <si>
+    <t>0.393912</t>
+  </si>
+  <si>
+    <t>0.387488</t>
+  </si>
+  <si>
+    <t>0.296273</t>
+  </si>
+  <si>
+    <t>0.391435</t>
+  </si>
+  <si>
+    <t>0.480155</t>
+  </si>
+  <si>
+    <t>0.380661</t>
+  </si>
+  <si>
+    <t>0.013376</t>
+  </si>
+  <si>
+    <t>0.070667</t>
+  </si>
+  <si>
+    <t>0.078224</t>
+  </si>
+  <si>
+    <t>0.047111</t>
+  </si>
+  <si>
+    <t>0.042024</t>
+  </si>
+  <si>
+    <t>0.178065</t>
+  </si>
+  <si>
+    <t>0.102969</t>
+  </si>
+  <si>
+    <t>0.072972</t>
+  </si>
+  <si>
+    <t>0.080992</t>
+  </si>
+  <si>
+    <t>0.040773</t>
+  </si>
+  <si>
+    <t>0.002065</t>
+  </si>
+  <si>
+    <t>0.001719</t>
+  </si>
+  <si>
+    <t>0.001725</t>
+  </si>
+  <si>
+    <t>0.002162</t>
+  </si>
+  <si>
+    <t>0.002337</t>
+  </si>
+  <si>
+    <t>0.002253</t>
+  </si>
+  <si>
+    <t>0.000699</t>
+  </si>
+  <si>
+    <t>situ</t>
+  </si>
+  <si>
+    <t>0.538290</t>
+  </si>
+  <si>
+    <t>0.365479</t>
+  </si>
+  <si>
+    <t>0.56839</t>
+  </si>
+  <si>
+    <t>0.551164</t>
+  </si>
+  <si>
+    <t>0.588666</t>
+  </si>
+  <si>
+    <t>0.508798</t>
+  </si>
+  <si>
+    <t>0.496974</t>
+  </si>
+  <si>
+    <t>0.386476</t>
+  </si>
+  <si>
+    <t>0.568539</t>
+  </si>
+  <si>
+    <t>0.37459</t>
+  </si>
+  <si>
+    <t>0.406132</t>
+  </si>
+  <si>
+    <t>0.364491</t>
+  </si>
+  <si>
+    <t>0.457115</t>
+  </si>
+  <si>
+    <t>0.408908</t>
+  </si>
+  <si>
+    <t>0.073445</t>
+  </si>
+  <si>
+    <t>0.065981</t>
+  </si>
+  <si>
+    <t>0.05579</t>
+  </si>
+  <si>
+    <t>0.041896</t>
+  </si>
+  <si>
+    <t>0.045956</t>
+  </si>
+  <si>
+    <t>0.032419</t>
+  </si>
+  <si>
+    <t>0.092439</t>
+  </si>
+  <si>
+    <t>0.001788</t>
+  </si>
+  <si>
+    <t>0.00123</t>
+  </si>
+  <si>
+    <t>0.000887</t>
+  </si>
+  <si>
+    <t>0.001668</t>
+  </si>
+  <si>
+    <t>0.001679</t>
+  </si>
+  <si>
+    <t>catr</t>
+  </si>
+  <si>
+    <t>0.547364</t>
+  </si>
+  <si>
+    <t>0.621553</t>
+  </si>
+  <si>
+    <t>0.525936</t>
+  </si>
+  <si>
+    <t>0.539622</t>
+  </si>
+  <si>
+    <t>0.425802</t>
+  </si>
+  <si>
+    <t>0.534904</t>
+  </si>
+  <si>
+    <t>0.429197</t>
+  </si>
+  <si>
+    <t>0.387675</t>
+  </si>
+  <si>
+    <t>0.306749</t>
+  </si>
+  <si>
+    <t>0.399679</t>
+  </si>
+  <si>
+    <t>0.391603</t>
+  </si>
+  <si>
+    <t>0.361297</t>
+  </si>
+  <si>
+    <t>0.382207</t>
+  </si>
+  <si>
+    <t>0.364177</t>
+  </si>
+  <si>
+    <t>0.063701</t>
+  </si>
+  <si>
+    <t>0.070991</t>
+  </si>
+  <si>
+    <t>0.072550</t>
+  </si>
+  <si>
+    <t>0.067022</t>
+  </si>
+  <si>
+    <t>0.204991</t>
+  </si>
+  <si>
+    <t>0.081321</t>
+  </si>
+  <si>
+    <t>0.206625</t>
+  </si>
+  <si>
+    <t>0.001261</t>
+  </si>
+  <si>
+    <t>0.000707</t>
+  </si>
+  <si>
+    <t>0.001836</t>
+  </si>
+  <si>
+    <t>0.001752</t>
+  </si>
+  <si>
+    <t>0.007910</t>
+  </si>
+  <si>
+    <t>0.001569</t>
   </si>
 </sst>
 </file>
@@ -269,16 +1442,19 @@
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -485,4 +1661,2188 @@
   </sheetData>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="G7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="O7" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="O8" s="0" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:AC20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="15" min="15" outlineLevel="0" width="12.6829272583728"/>
+  </cols>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="AC8" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="O9" s="0" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
 </file>